--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/24.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/24.xlsx
@@ -479,13 +479,13 @@
         <v>0.03859827825450331</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.005233502304637</v>
+        <v>-1.899087177168142</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2809248513019876</v>
+        <v>0.1991430274395475</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04451532754970311</v>
+        <v>0.02976988526864206</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.0503159573632869</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.096729532785643</v>
+        <v>-2.013289334603126</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1196563350837103</v>
+        <v>0.07247592113386432</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.002690093147889586</v>
+        <v>-0.02405012516828332</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.06025039424835545</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.302210588940711</v>
+        <v>-2.238731264746126</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08326602782621421</v>
+        <v>0.06012380758836266</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02368295292088099</v>
+        <v>-0.03530743109902223</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.06576064377215071</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.332238813619048</v>
+        <v>-2.280383967602605</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1172745948410092</v>
+        <v>0.09526316753784853</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02284614175238266</v>
+        <v>-0.03271343846081274</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.06751374563436115</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.318704063881332</v>
+        <v>-2.242642686046111</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07710582899105883</v>
+        <v>0.06241710933293536</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01515992138400363</v>
+        <v>-0.03229320311453333</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.06719328949225202</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.00697726551946</v>
+        <v>-1.936641213076874</v>
       </c>
       <c r="F7" t="n">
-        <v>0.16091868870707</v>
+        <v>0.1684688967645342</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.05802514654585714</v>
+        <v>-0.05240655727165403</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.06802089867274437</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.810760904444195</v>
+        <v>-1.761897719347202</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1640872266227761</v>
+        <v>0.1509769816760766</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.005732377483508899</v>
+        <v>-0.009369944399634317</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.07339762321948214</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.367355281575802</v>
+        <v>-1.331237608860812</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2119165961726821</v>
+        <v>0.1806447432344556</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04176588114510742</v>
+        <v>-0.03561971048551724</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.08616784952742697</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7707455136770932</v>
+        <v>-0.7936779212021435</v>
       </c>
       <c r="F10" t="n">
-        <v>0.240364516377565</v>
+        <v>0.1863670190237059</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02573769967466065</v>
+        <v>0.04296246950670255</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1104901015611866</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.377542461711832</v>
+        <v>-0.4421147637591489</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1107356352655933</v>
+        <v>0.08686333997767427</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04799004564513679</v>
+        <v>0.05988532860375417</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1504667222773069</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3027441535919727</v>
+        <v>0.1568944320818863</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.004879708377415114</v>
+        <v>-0.05722980998337768</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1769943679841185</v>
+        <v>0.1811332896965308</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2092906217036946</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8231345742001831</v>
+        <v>0.5963910733330019</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.06181946307590681</v>
+        <v>-0.1260770460540217</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2388244666687762</v>
+        <v>0.2390720944635359</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2906866341549497</v>
       </c>
       <c r="E14" t="n">
-        <v>1.322244252475977</v>
+        <v>1.025948447235831</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3682741071079685</v>
+        <v>-0.4294552501925662</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4026924648113536</v>
+        <v>0.3764573368217127</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.396687103150083</v>
       </c>
       <c r="E15" t="n">
-        <v>1.891405150238316</v>
+        <v>1.528427937250658</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7451117674747259</v>
+        <v>-0.7954296133857639</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4254370167679655</v>
+        <v>0.4164992391708994</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.525243359194817</v>
       </c>
       <c r="E16" t="n">
-        <v>2.584677586670764</v>
+        <v>2.137174516695976</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9508050760253014</v>
+        <v>-0.9903163473857174</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5337711273719555</v>
+        <v>0.5272937697848912</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6710048751849033</v>
       </c>
       <c r="E17" t="n">
-        <v>3.028924290152393</v>
+        <v>2.541434210689326</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.278422137778491</v>
+        <v>-1.317443642835478</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5772310251936383</v>
+        <v>0.5642427643822885</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8271825784950093</v>
       </c>
       <c r="E18" t="n">
-        <v>3.554397789680622</v>
+        <v>2.996287434739604</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.521307799276486</v>
+        <v>-1.546484104971292</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6911849449131851</v>
+        <v>0.6767444629704981</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9855911254066124</v>
       </c>
       <c r="E19" t="n">
-        <v>3.812138069260816</v>
+        <v>3.210414726408252</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.801908515741874</v>
+        <v>-1.821005132130856</v>
       </c>
       <c r="G19" t="n">
-        <v>0.851519672575361</v>
+        <v>0.8192536489340353</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.138974248395625</v>
       </c>
       <c r="E20" t="n">
-        <v>4.108489987203223</v>
+        <v>3.496402872211356</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.006486279374677</v>
+        <v>-2.000216904738384</v>
       </c>
       <c r="G20" t="n">
-        <v>1.115131048589932</v>
+        <v>1.038964154477635</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.28399324593968</v>
       </c>
       <c r="E21" t="n">
-        <v>4.435855151716915</v>
+        <v>3.780797905206794</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.331836875893071</v>
+        <v>-2.262442540975384</v>
       </c>
       <c r="G21" t="n">
-        <v>1.247469197348019</v>
+        <v>1.149835535096897</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.416230241703693</v>
       </c>
       <c r="E22" t="n">
-        <v>4.72577240651963</v>
+        <v>4.014707364105088</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.575112886624185</v>
+        <v>-2.494534436256969</v>
       </c>
       <c r="G22" t="n">
-        <v>1.273077326881963</v>
+        <v>1.159514976236888</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.53034773354694</v>
       </c>
       <c r="E23" t="n">
-        <v>5.005889455888357</v>
+        <v>4.265233501920706</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.755392020416022</v>
+        <v>-2.653591380101358</v>
       </c>
       <c r="G23" t="n">
-        <v>1.516263679273595</v>
+        <v>1.372601743231004</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.622973526483984</v>
       </c>
       <c r="E24" t="n">
-        <v>5.134554662331067</v>
+        <v>4.402043589080709</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.900400661312873</v>
+        <v>-2.807415204539248</v>
       </c>
       <c r="G24" t="n">
-        <v>1.619448839524478</v>
+        <v>1.462899889502877</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.6930511752808</v>
       </c>
       <c r="E25" t="n">
-        <v>5.362268546994954</v>
+        <v>4.622071253376218</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.077319742096506</v>
+        <v>-2.939116596110809</v>
       </c>
       <c r="G25" t="n">
-        <v>1.675112640167213</v>
+        <v>1.534396620993315</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.741000668508598</v>
       </c>
       <c r="E26" t="n">
-        <v>5.423165467044187</v>
+        <v>4.722671569799043</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.22607695547265</v>
+        <v>-3.085027614648909</v>
       </c>
       <c r="G26" t="n">
-        <v>1.691815927820635</v>
+        <v>1.543618621625745</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.768052471750499</v>
       </c>
       <c r="E27" t="n">
-        <v>5.571271285137565</v>
+        <v>4.858627768011599</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.180372549560534</v>
+        <v>-3.039517773432676</v>
       </c>
       <c r="G27" t="n">
-        <v>1.692685064785001</v>
+        <v>1.542412808447814</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.775932843406929</v>
       </c>
       <c r="E28" t="n">
-        <v>5.572275214571492</v>
+        <v>4.888622447052715</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.170141130208086</v>
+        <v>-3.011420862577262</v>
       </c>
       <c r="G28" t="n">
-        <v>1.719320910659265</v>
+        <v>1.571739014427215</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.764592463804376</v>
       </c>
       <c r="E29" t="n">
-        <v>5.584639526530529</v>
+        <v>4.913172974133178</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.337310019053223</v>
+        <v>-3.163810763504117</v>
       </c>
       <c r="G29" t="n">
-        <v>1.734203585092595</v>
+        <v>1.582352854043984</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.732798675178335</v>
       </c>
       <c r="E30" t="n">
-        <v>5.564194985445933</v>
+        <v>4.916594629129734</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.257972147342513</v>
+        <v>-3.094333479374393</v>
       </c>
       <c r="G30" t="n">
-        <v>1.703804528642795</v>
+        <v>1.559199655233951</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.681719305821078</v>
       </c>
       <c r="E31" t="n">
-        <v>5.507554091879049</v>
+        <v>4.887224508861609</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.209189166814511</v>
+        <v>-3.045659064726852</v>
       </c>
       <c r="G31" t="n">
-        <v>1.585427464175471</v>
+        <v>1.432640504888052</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.612156742371279</v>
       </c>
       <c r="E32" t="n">
-        <v>5.296704513927245</v>
+        <v>4.738362389129064</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.197142318567722</v>
+        <v>-3.024369478544623</v>
       </c>
       <c r="G32" t="n">
-        <v>1.509437447059431</v>
+        <v>1.406489545951803</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.525023315802906</v>
       </c>
       <c r="E33" t="n">
-        <v>5.106110401650245</v>
+        <v>4.590732309163549</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.244370306330354</v>
+        <v>-3.086802178857908</v>
       </c>
       <c r="G33" t="n">
-        <v>1.404466439067029</v>
+        <v>1.302385845161737</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.4241030745915</v>
       </c>
       <c r="E34" t="n">
-        <v>4.906729772104011</v>
+        <v>4.433968057143057</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.044840856138995</v>
+        <v>-2.859741519238817</v>
       </c>
       <c r="G34" t="n">
-        <v>1.290658290389225</v>
+        <v>1.196460921230902</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.313481906144544</v>
       </c>
       <c r="E35" t="n">
-        <v>4.662201594223533</v>
+        <v>4.222045018800176</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.999052281173488</v>
+        <v>-2.809365730863489</v>
       </c>
       <c r="G35" t="n">
-        <v>1.26391204887247</v>
+        <v>1.159078273032337</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.196421936864771</v>
       </c>
       <c r="E36" t="n">
-        <v>4.459600583504071</v>
+        <v>4.052189429373963</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.954972094023552</v>
+        <v>-2.764062042835996</v>
       </c>
       <c r="G36" t="n">
-        <v>1.23044631125998</v>
+        <v>1.134759515809038</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.077279521313469</v>
       </c>
       <c r="E37" t="n">
-        <v>4.112642327170524</v>
+        <v>3.730169609671291</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.983356277517715</v>
+        <v>-2.78762205873742</v>
       </c>
       <c r="G37" t="n">
-        <v>1.173884097460396</v>
+        <v>1.096563233427691</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9602805167368089</v>
       </c>
       <c r="E38" t="n">
-        <v>3.845112820728523</v>
+        <v>3.517382923650135</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.933944468771986</v>
+        <v>-2.731924102536787</v>
       </c>
       <c r="G38" t="n">
-        <v>1.12058556920209</v>
+        <v>1.053236908234216</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8478553457001493</v>
       </c>
       <c r="E39" t="n">
-        <v>3.579371601710748</v>
+        <v>3.276332513468475</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.957721616434332</v>
+        <v>-2.752773021030066</v>
       </c>
       <c r="G39" t="n">
-        <v>1.007233641190494</v>
+        <v>0.9490862435520409</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7407639327114742</v>
       </c>
       <c r="E40" t="n">
-        <v>3.333745566612123</v>
+        <v>3.05355654660354</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.994304658625681</v>
+        <v>-2.80760427994904</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8964988828028233</v>
+        <v>0.8462786242000649</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6412623144196207</v>
       </c>
       <c r="E41" t="n">
-        <v>3.014659465364609</v>
+        <v>2.761094702737432</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.86915076551901</v>
+        <v>-2.692429908955321</v>
       </c>
       <c r="G41" t="n">
-        <v>0.884881723672803</v>
+        <v>0.8371218850800464</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5489543026973237</v>
       </c>
       <c r="E42" t="n">
-        <v>2.657747303586534</v>
+        <v>2.436558350322497</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.92685414090479</v>
+        <v>-2.714249821165982</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8595889231287378</v>
+        <v>0.8174025396801049</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4628336268140683</v>
       </c>
       <c r="E43" t="n">
-        <v>2.47095177728432</v>
+        <v>2.261457443076251</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.758720357549036</v>
+        <v>-2.553594885148514</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7778729706993865</v>
+        <v>0.7333091164527896</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3829579178548174</v>
       </c>
       <c r="E44" t="n">
-        <v>2.092810716431353</v>
+        <v>1.91331655055049</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.678623744516451</v>
+        <v>-2.47295971215836</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8221031983358021</v>
+        <v>0.7889631583646964</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.308647497345971</v>
       </c>
       <c r="E45" t="n">
-        <v>1.939077770174298</v>
+        <v>1.794389947553416</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.706577019052491</v>
+        <v>-2.503007454298353</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7375572139663399</v>
+        <v>0.6901633277796321</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2382830483284227</v>
       </c>
       <c r="E46" t="n">
-        <v>1.676273319215064</v>
+        <v>1.577189875515312</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.660321244848596</v>
+        <v>-2.430310398916075</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6629626953586989</v>
+        <v>0.6281484231299197</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1712495579815566</v>
       </c>
       <c r="E47" t="n">
-        <v>1.483161454384448</v>
+        <v>1.411714126468826</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.581765901366153</v>
+        <v>-2.336018492052855</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5544084033904028</v>
+        <v>0.529702956458046</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1072292134748232</v>
       </c>
       <c r="E48" t="n">
-        <v>1.334184669564674</v>
+        <v>1.287644062404737</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.576906053413824</v>
+        <v>-2.337776283443243</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5060032687216467</v>
+        <v>0.4752419193898584</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.04541272446970956</v>
       </c>
       <c r="E49" t="n">
-        <v>1.176970906005418</v>
+        <v>1.169282855875009</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.546237412024902</v>
+        <v>-2.290652592116335</v>
       </c>
       <c r="G49" t="n">
-        <v>0.437109068758893</v>
+        <v>0.4160613161249943</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.01447343725661395</v>
       </c>
       <c r="E50" t="n">
-        <v>1.055313078217866</v>
+        <v>1.044145430626609</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.520895817826696</v>
+        <v>-2.257150259263241</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3598894515585284</v>
+        <v>0.3505174104396178</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.0720759941761671</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7829462908885768</v>
+        <v>0.8148024478351279</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.413230180284422</v>
+        <v>-2.155990035659161</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2757161287225592</v>
+        <v>0.2703000331130364</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1276794478404199</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6466631751932838</v>
+        <v>0.70973141285174</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.390585655318797</v>
+        <v>-2.119186812103507</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2102588317732809</v>
+        <v>0.1963148252614668</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1813069802363662</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4429679667797349</v>
+        <v>0.5368676946478054</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.372866849738589</v>
+        <v>-2.09395622346847</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2058991187758857</v>
+        <v>0.1910890249030894</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2325569507147174</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2715546399451072</v>
+        <v>0.3897694655124158</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.33345377560713</v>
+        <v>-2.061266914877481</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1221533503343169</v>
+        <v>0.1245997421687534</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2818212128896842</v>
       </c>
       <c r="E55" t="n">
-        <v>0.226008813408946</v>
+        <v>0.351862895452524</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.291536367176943</v>
+        <v>-2.022435095150962</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07514188441193009</v>
+        <v>0.0776358500591529</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3297000457370047</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1296450060068133</v>
+        <v>0.2688106068204177</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.313083644845098</v>
+        <v>-2.049846760126051</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0108818617511082</v>
+        <v>0.01111119192556547</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3764609505684543</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.04576330126051419</v>
+        <v>0.0947337563904312</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.307396134534422</v>
+        <v>-2.021472030402377</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04283194648187846</v>
+        <v>0.04419145967034989</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4229650831316309</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1975420616692684</v>
+        <v>-0.04655863782299365</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.22776428105752</v>
+        <v>-1.971892798430881</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.03196811539382661</v>
+        <v>-0.02392875095361046</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4698219801540828</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2895614040909247</v>
+        <v>-0.1197241122850139</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.313306875812788</v>
+        <v>-2.049131933092902</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.05887415612789044</v>
+        <v>-0.0312002252618008</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5167189846335951</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5029897266640191</v>
+        <v>-0.3151164705259915</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.373379183107058</v>
+        <v>-2.120526197909645</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.06880488458670232</v>
+        <v>-0.04618536636882384</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5630221170916014</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.6077515318642958</v>
+        <v>-0.3986817024472429</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.347854612705828</v>
+        <v>-2.110687567473023</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.09749433337957747</v>
+        <v>-0.0658742157349279</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6083563362433302</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6158890935334683</v>
+        <v>-0.4106459064423328</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.328544524079985</v>
+        <v>-2.072746231934556</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1533923435621835</v>
+        <v>-0.1214178620043433</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6516701144524006</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.8158241409748654</v>
+        <v>-0.6007246357474814</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.420100326787312</v>
+        <v>-2.149135747093867</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1568164382414471</v>
+        <v>-0.1227731057480775</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6917208637646091</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.9277616629370831</v>
+        <v>-0.6922481126589415</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.408729575610698</v>
+        <v>-2.160186289915188</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1815444522388436</v>
+        <v>-0.1412354046332412</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7288681344345312</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.079877709480079</v>
+        <v>-0.8160888465485742</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.407828722771141</v>
+        <v>-2.173345328516028</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1865104263889263</v>
+        <v>-0.1369244852899859</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7632519247148259</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.231475323447839</v>
+        <v>-0.9462264015049537</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.44268995889203</v>
+        <v>-2.211541610897374</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2603248564510065</v>
+        <v>-0.1958647798082112</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7942151159989824</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.373377638338012</v>
+        <v>-1.0472353647812</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.339789631597189</v>
+        <v>-2.12925233303188</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2537889464789743</v>
+        <v>-0.1993407177449984</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.8221883522054847</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.490948997591351</v>
+        <v>-1.155310259097572</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.381769861857081</v>
+        <v>-2.16986390129315</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2948976000917934</v>
+        <v>-0.230011798816628</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8472633178311689</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.608400202471371</v>
+        <v>-1.259251720987622</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.414023077164195</v>
+        <v>-2.193986264058535</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2918205502775995</v>
+        <v>-0.2381359422309121</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.86869112139886</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.743485433957531</v>
+        <v>-1.343904441475515</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.345450305398087</v>
+        <v>-2.166314772875153</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2861476780631658</v>
+        <v>-0.2283235383833894</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8863155103347625</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.813118247859827</v>
+        <v>-1.406004125099296</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.362285335917687</v>
+        <v>-2.177831905014186</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3549839355616283</v>
+        <v>-0.2795056418933794</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8994958762363272</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.867168198391886</v>
+        <v>-1.458015720729663</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.392216583208421</v>
+        <v>-2.236730115005716</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4243764407172851</v>
+        <v>-0.3334372678141497</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.906812012287199</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.879846619499448</v>
+        <v>-1.465545801404795</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.323128428470462</v>
+        <v>-2.19876804216424</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4586009196516489</v>
+        <v>-0.3659832450461028</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.9067568585066809</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.881916080355654</v>
+        <v>-1.458202966377425</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.38858572541974</v>
+        <v>-2.256479346518818</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4424319225110579</v>
+        <v>-0.3409392921381508</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8984271948629368</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.844874987736068</v>
+        <v>-1.436739247841984</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.295872293267945</v>
+        <v>-2.191486809125222</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4829093082234427</v>
+        <v>-0.3835288331541142</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8803479593803735</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.724643154490753</v>
+        <v>-1.327906832045091</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.263509902159693</v>
+        <v>-2.16882093693591</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4332416377538181</v>
+        <v>-0.3302577513262621</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8510116211265377</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.578959941325419</v>
+        <v>-1.213577201188667</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.141943562473654</v>
+        <v>-2.078919239103923</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4587564494242197</v>
+        <v>-0.353692123568276</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.8103028438433721</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.480199145663667</v>
+        <v>-1.126661065069362</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.116315305557377</v>
+        <v>-2.043740234310449</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4251870252966833</v>
+        <v>-0.3169566012077404</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7578174127884323</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.2882821154388</v>
+        <v>-0.9160774125326205</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.040986442454932</v>
+        <v>-1.957442557757366</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4140077892125681</v>
+        <v>-0.3133257434190592</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.693556060176059</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.152635756930032</v>
+        <v>-0.823131600602984</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.013189307612139</v>
+        <v>-1.957413891485559</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.378883677280001</v>
+        <v>-0.2947628076222321</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6190611656984594</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8402087696312528</v>
+        <v>-0.5406401300396767</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.908093875801681</v>
+        <v>-1.86155021903836</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3323631975023963</v>
+        <v>-0.2468334110813395</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5358174151078091</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6265791732348316</v>
+        <v>-0.3512097464139113</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.971594547219951</v>
+        <v>-1.934818160174074</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2961290299381477</v>
+        <v>-0.2038462017841363</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4452698219606478</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3588099679668689</v>
+        <v>-0.1199601515869154</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.909274682231865</v>
+        <v>-1.870538010130919</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2778777636071388</v>
+        <v>-0.1822025566490547</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3495481584687041</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1243241340290478</v>
+        <v>0.07623059281992538</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.75611567133163</v>
+        <v>-1.7311839438282</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2688637459254793</v>
+        <v>-0.1911256961498788</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2523492167652815</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1719417850979376</v>
+        <v>0.3387191048686033</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.637505617165789</v>
+        <v>-1.621963618480895</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2257917576542082</v>
+        <v>-0.1392592616405775</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1572152315377558</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3852914279037316</v>
+        <v>0.5017667597009546</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.480613891723855</v>
+        <v>-1.481947178323227</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2302667456595087</v>
+        <v>-0.150488511220186</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.0678974754178643</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6264516238072066</v>
+        <v>0.7073380841161806</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.415195019777212</v>
+        <v>-1.407775944665249</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1476194443567631</v>
+        <v>-0.08852788951070427</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.01069973339064393</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8066490282283599</v>
+        <v>0.8644567000498641</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.297082660883597</v>
+        <v>-1.304063203028979</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.06719469400008744</v>
+        <v>-0.01244028508638404</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.07396668848185747</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8808666158577706</v>
+        <v>0.9090723975539845</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.055435748280077</v>
+        <v>-1.080912134947844</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.07068283035040959</v>
+        <v>-0.02353657195846146</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1175950402597354</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9886133728500522</v>
+        <v>0.961708551957342</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.018430031059742</v>
+        <v>-1.039125859463157</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.03049637680083355</v>
+        <v>0.02253073675631936</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1372378794180422</v>
       </c>
       <c r="E91" t="n">
-        <v>1.038048053621159</v>
+        <v>0.9856302508200775</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7303644954316346</v>
+        <v>-0.771540240318896</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.04756866646368844</v>
+        <v>0.01230297692793117</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1309827363590614</v>
       </c>
       <c r="E92" t="n">
-        <v>1.038068790924169</v>
+        <v>0.9496662781156282</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4824152724752768</v>
+        <v>-0.5444045604565657</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08503670355699838</v>
+        <v>-0.0175874056774609</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1005736957277873</v>
       </c>
       <c r="E93" t="n">
-        <v>1.151781182055723</v>
+        <v>1.013029107460954</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2839153683862679</v>
+        <v>-0.3448885285200945</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.05806235170713878</v>
+        <v>0.005781705052140939</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.05140140649261862</v>
       </c>
       <c r="E94" t="n">
-        <v>1.214202903796826</v>
+        <v>1.082834528914769</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.06366386320239294</v>
+        <v>-0.1396270438086566</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1158072016989379</v>
+        <v>-0.05677358931717013</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.00784999788679305</v>
       </c>
       <c r="E95" t="n">
-        <v>1.21427914388142</v>
+        <v>1.081582971686082</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07833786875808992</v>
+        <v>0.005981149113437554</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08063978539832163</v>
+        <v>-0.03020727440005497</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.06646574733722083</v>
       </c>
       <c r="E96" t="n">
-        <v>1.194492097286359</v>
+        <v>1.078807832606878</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1679169185520772</v>
+        <v>0.08677673124157605</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1491222889042703</v>
+        <v>-0.09092121824626365</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1141064168493586</v>
       </c>
       <c r="E97" t="n">
-        <v>1.153398691690459</v>
+        <v>1.059079338396786</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2682159341605883</v>
+        <v>0.1872355460673952</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1590042237089424</v>
+        <v>-0.09897278110001476</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1436753999591082</v>
       </c>
       <c r="E98" t="n">
-        <v>1.102919826720759</v>
+        <v>1.038840340580255</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2791335142743785</v>
+        <v>0.2105332960778175</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1816749752636677</v>
+        <v>-0.1062405958841446</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1538371301976835</v>
       </c>
       <c r="E99" t="n">
-        <v>1.014908882986691</v>
+        <v>0.9755513116368159</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3120716705014807</v>
+        <v>0.2331900194569776</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1867245085464649</v>
+        <v>-0.1134291209802972</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.14885599008726</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9132460847449715</v>
+        <v>0.8740440431676668</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3522544645269962</v>
+        <v>0.2743773528370972</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1528525637632615</v>
+        <v>-0.07970233731815987</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1368770664665257</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9565937571621327</v>
+        <v>0.9038264698132744</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3580212645256491</v>
+        <v>0.2723377780940517</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2266511358877462</v>
+        <v>-0.1544365277607762</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1275790536986677</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9560234813293732</v>
+        <v>0.9058044425679684</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3314226238126663</v>
+        <v>0.2366348514392506</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1951206765825786</v>
+        <v>-0.1188110610319221</v>
       </c>
     </row>
   </sheetData>
